--- a/data/datasets/roster_san_diego_state.xlsx
+++ b/data/datasets/roster_san_diego_state.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdpet\Documents\Post School Coursework\data_projects\cfb-analysis\data\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640C809C-5685-4DD1-A97E-834EDE6C2A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4934692-B7FC-410A-82BF-DC0E0CFCE655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="237">
   <si>
     <t>first_name</t>
   </si>
@@ -145,9 +145,6 @@
     <t>LB</t>
   </si>
   <si>
-    <t>Alex</t>
-  </si>
-  <si>
     <t>MLB</t>
   </si>
   <si>
@@ -190,24 +187,12 @@
     <t>Kirkendoll</t>
   </si>
   <si>
-    <t>Marquise</t>
-  </si>
-  <si>
-    <t>Hartman</t>
-  </si>
-  <si>
     <t>George</t>
   </si>
   <si>
     <t>Carlos</t>
   </si>
   <si>
-    <t>Dewayne</t>
-  </si>
-  <si>
-    <t>Conrad</t>
-  </si>
-  <si>
     <t>Carl</t>
   </si>
   <si>
@@ -220,9 +205,6 @@
     <t>Edmond</t>
   </si>
   <si>
-    <t>Vanderdoes</t>
-  </si>
-  <si>
     <t>Franklin</t>
   </si>
   <si>
@@ -241,12 +223,6 @@
     <t>Gammon</t>
   </si>
   <si>
-    <t>Shawn</t>
-  </si>
-  <si>
-    <t>McCleon</t>
-  </si>
-  <si>
     <t>Tevin</t>
   </si>
   <si>
@@ -286,12 +262,6 @@
     <t>normal</t>
   </si>
   <si>
-    <t>Gideon</t>
-  </si>
-  <si>
-    <t>Ebukam</t>
-  </si>
-  <si>
     <t>Jose</t>
   </si>
   <si>
@@ -310,12 +280,6 @@
     <t>Iverson</t>
   </si>
   <si>
-    <t>J.D.</t>
-  </si>
-  <si>
-    <t>Bryant</t>
-  </si>
-  <si>
     <t>Anton</t>
   </si>
   <si>
@@ -331,9 +295,6 @@
     <t>Marshall</t>
   </si>
   <si>
-    <t>Office</t>
-  </si>
-  <si>
     <t>Frank</t>
   </si>
   <si>
@@ -367,12 +328,6 @@
     <t>McGhee</t>
   </si>
   <si>
-    <t>Damon</t>
-  </si>
-  <si>
-    <t>Johnson</t>
-  </si>
-  <si>
     <t>Steve</t>
   </si>
   <si>
@@ -412,12 +367,6 @@
     <t>Peacock</t>
   </si>
   <si>
-    <t>Keshawn</t>
-  </si>
-  <si>
-    <t>Scruggs</t>
-  </si>
-  <si>
     <t>agile</t>
   </si>
   <si>
@@ -442,9 +391,6 @@
     <t>Flavors</t>
   </si>
   <si>
-    <t>Griggs</t>
-  </si>
-  <si>
     <t>Tim</t>
   </si>
   <si>
@@ -454,12 +400,6 @@
     <t>Cutler</t>
   </si>
   <si>
-    <t>Darrion</t>
-  </si>
-  <si>
-    <t>Gooch</t>
-  </si>
-  <si>
     <t>Kardell</t>
   </si>
   <si>
@@ -475,18 +415,6 @@
     <t>power</t>
   </si>
   <si>
-    <t>Shakim</t>
-  </si>
-  <si>
-    <t>Durant</t>
-  </si>
-  <si>
-    <t>Nolan</t>
-  </si>
-  <si>
-    <t>Nailor</t>
-  </si>
-  <si>
     <t>Rodney</t>
   </si>
   <si>
@@ -503,6 +431,306 @@
   </si>
   <si>
     <t>Knight</t>
+  </si>
+  <si>
+    <t>Jarrad</t>
+  </si>
+  <si>
+    <t>Dearth</t>
+  </si>
+  <si>
+    <t>Jameson</t>
+  </si>
+  <si>
+    <t>Sims</t>
+  </si>
+  <si>
+    <t>Matt</t>
+  </si>
+  <si>
+    <t>Kalu</t>
+  </si>
+  <si>
+    <t>Redmond</t>
+  </si>
+  <si>
+    <t>Alves</t>
+  </si>
+  <si>
+    <t>Kendrick</t>
+  </si>
+  <si>
+    <t>Creer</t>
+  </si>
+  <si>
+    <t>Demetrius</t>
+  </si>
+  <si>
+    <t>Monk</t>
+  </si>
+  <si>
+    <t>Jayden</t>
+  </si>
+  <si>
+    <t>Andrews</t>
+  </si>
+  <si>
+    <t>speed_rusher</t>
+  </si>
+  <si>
+    <t>run_stopper</t>
+  </si>
+  <si>
+    <t>Leati</t>
+  </si>
+  <si>
+    <t>Sagapolu</t>
+  </si>
+  <si>
+    <t>Kenan</t>
+  </si>
+  <si>
+    <t>Blunt</t>
+  </si>
+  <si>
+    <t>J.R.</t>
+  </si>
+  <si>
+    <t>Gordon</t>
+  </si>
+  <si>
+    <t>Sahara</t>
+  </si>
+  <si>
+    <t>Donte</t>
+  </si>
+  <si>
+    <t>Sharpe</t>
+  </si>
+  <si>
+    <t>power_rusher</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>Lyles</t>
+  </si>
+  <si>
+    <t>Keenan</t>
+  </si>
+  <si>
+    <t>Canidate</t>
+  </si>
+  <si>
+    <t>Adrian</t>
+  </si>
+  <si>
+    <t>Ventura</t>
+  </si>
+  <si>
+    <t>Jaron</t>
+  </si>
+  <si>
+    <t>Exum</t>
+  </si>
+  <si>
+    <t>Kyle</t>
+  </si>
+  <si>
+    <t>Witherspoon</t>
+  </si>
+  <si>
+    <t>Antonio</t>
+  </si>
+  <si>
+    <t>Daniels</t>
+  </si>
+  <si>
+    <t>Kerry</t>
+  </si>
+  <si>
+    <t>Turner</t>
+  </si>
+  <si>
+    <t>Rasheem</t>
+  </si>
+  <si>
+    <t>Soroh</t>
+  </si>
+  <si>
+    <t>Shane</t>
+  </si>
+  <si>
+    <t>Romberg</t>
+  </si>
+  <si>
+    <t>Jared</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
+    <t>pass_coverage</t>
+  </si>
+  <si>
+    <t>Ciante</t>
+  </si>
+  <si>
+    <t>Komar</t>
+  </si>
+  <si>
+    <t>Cheek</t>
+  </si>
+  <si>
+    <t>Joey</t>
+  </si>
+  <si>
+    <t>McGarrahan</t>
+  </si>
+  <si>
+    <t>Sergio</t>
+  </si>
+  <si>
+    <t>Miles</t>
+  </si>
+  <si>
+    <t>Dante</t>
+  </si>
+  <si>
+    <t>Metzelaars</t>
+  </si>
+  <si>
+    <t>Marcell</t>
+  </si>
+  <si>
+    <t>Cutting</t>
+  </si>
+  <si>
+    <t>Reggie</t>
+  </si>
+  <si>
+    <t>Kumah</t>
+  </si>
+  <si>
+    <t>Diego</t>
+  </si>
+  <si>
+    <t>Benavidez</t>
+  </si>
+  <si>
+    <t>Ahmad</t>
+  </si>
+  <si>
+    <t>Devoe</t>
+  </si>
+  <si>
+    <t>Donald</t>
+  </si>
+  <si>
+    <t>Bhargava</t>
+  </si>
+  <si>
+    <t>Jason</t>
+  </si>
+  <si>
+    <t>Lay</t>
+  </si>
+  <si>
+    <t>Sidney</t>
+  </si>
+  <si>
+    <t>Donnerson</t>
+  </si>
+  <si>
+    <t>Connor</t>
+  </si>
+  <si>
+    <t>Van Dyke</t>
+  </si>
+  <si>
+    <t>Anthony</t>
+  </si>
+  <si>
+    <t>Rozeboom</t>
+  </si>
+  <si>
+    <t>Jarred</t>
+  </si>
+  <si>
+    <t>Bulluck</t>
+  </si>
+  <si>
+    <t>Stephen</t>
+  </si>
+  <si>
+    <t>Boyce</t>
+  </si>
+  <si>
+    <t>zone</t>
+  </si>
+  <si>
+    <t>slot</t>
+  </si>
+  <si>
+    <t>man_to_man</t>
+  </si>
+  <si>
+    <t>Taylor</t>
+  </si>
+  <si>
+    <t>Seither</t>
+  </si>
+  <si>
+    <t>D'Angelo</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Magoolaghan</t>
+  </si>
+  <si>
+    <t>Jamal</t>
+  </si>
+  <si>
+    <t>Rawls</t>
+  </si>
+  <si>
+    <t>LaRocque</t>
+  </si>
+  <si>
+    <t>run_support</t>
+  </si>
+  <si>
+    <t>Jon</t>
+  </si>
+  <si>
+    <t>Mead</t>
+  </si>
+  <si>
+    <t>Gill</t>
+  </si>
+  <si>
+    <t>Evensen</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Trewyn</t>
+  </si>
+  <si>
+    <t>Travis</t>
+  </si>
+  <si>
+    <t>Rubin</t>
+  </si>
+  <si>
+    <t>Davante</t>
+  </si>
+  <si>
+    <t>Jean</t>
   </si>
 </sst>
 </file>
@@ -575,14 +803,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Frame2" displayName="Frame2" ref="A1:L104" totalsRowShown="0">
-  <autoFilter ref="A1:L104" xr:uid="{00000000-0009-0000-0100-000003000000}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="RT"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Frame2" displayName="Frame2" ref="A1:L86" totalsRowShown="0">
+  <autoFilter ref="A1:L86" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="first_name"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="last_name"/>
@@ -888,16 +1110,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L104"/>
+  <dimension ref="A1:L112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
@@ -942,24 +1164,24 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" t="s">
         <v>52</v>
       </c>
-      <c r="L1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>10</v>
@@ -977,25 +1199,27 @@
         <v>12</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="K2" s="1">
+        <v>86</v>
+      </c>
       <c r="L2" s="2">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>10</v>
@@ -1013,25 +1237,27 @@
         <v>12</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="K3" s="1">
+        <v>86</v>
+      </c>
       <c r="L3" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
@@ -1051,95 +1277,101 @@
       <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="1"/>
+      <c r="K4" s="1">
+        <v>75</v>
+      </c>
       <c r="L4" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="1"/>
+      <c r="K5" s="1">
+        <v>89</v>
+      </c>
       <c r="L5" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="K6" s="1">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="L6" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>17</v>
@@ -1154,28 +1386,30 @@
         <v>11</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="1"/>
+      <c r="K7" s="1">
+        <v>87</v>
+      </c>
       <c r="L7" s="2">
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>17</v>
@@ -1190,17 +1424,19 @@
         <v>11</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="K8" s="1">
+        <v>83</v>
+      </c>
       <c r="L8" s="2">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>67</v>
       </c>
@@ -1208,10 +1444,10 @@
         <v>68</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>17</v>
@@ -1226,17 +1462,19 @@
         <v>11</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="K9" s="1">
+        <v>74</v>
+      </c>
       <c r="L9" s="2">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>69</v>
       </c>
@@ -1244,10 +1482,10 @@
         <v>70</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D10" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>17</v>
@@ -1262,31 +1500,33 @@
         <v>11</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="K10" s="1">
+        <v>73</v>
+      </c>
       <c r="L10" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="D11" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>18</v>
@@ -1298,34 +1538,36 @@
         <v>11</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="K11" s="1">
+        <v>72</v>
+      </c>
       <c r="L11" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D12" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>19</v>
@@ -1334,34 +1576,36 @@
         <v>11</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K12" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="K12" s="1">
+        <v>85</v>
+      </c>
       <c r="L12" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="D13" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>19</v>
@@ -1370,34 +1614,36 @@
         <v>11</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="K13" s="1">
+        <v>85</v>
+      </c>
       <c r="L13" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D14" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>19</v>
@@ -1406,17 +1652,19 @@
         <v>11</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J14" s="1"/>
+        <v>99</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="K14" s="1">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="L14" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>84</v>
       </c>
@@ -1424,16 +1672,16 @@
         <v>85</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="D15" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>19</v>
@@ -1442,25 +1690,27 @@
         <v>11</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="J15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="1">
+        <v>81</v>
+      </c>
+      <c r="L15" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K15" s="1"/>
-      <c r="L15" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="D16" s="1" t="b">
         <v>1</v>
@@ -1478,25 +1728,27 @@
         <v>11</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K16" s="1"/>
+      <c r="K16" s="1">
+        <v>81</v>
+      </c>
       <c r="L16" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="D17" s="1" t="b">
         <v>1</v>
@@ -1514,25 +1766,27 @@
         <v>11</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K17" s="1"/>
+      <c r="K17" s="1">
+        <v>81</v>
+      </c>
       <c r="L17" s="2">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="C18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18" s="1" t="b">
         <v>0</v>
@@ -1550,28 +1804,30 @@
         <v>11</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K18" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="K18" s="2">
+        <v>75</v>
+      </c>
       <c r="L18" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="C19" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D19" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>21</v>
@@ -1586,28 +1842,30 @@
         <v>11</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K19" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="K19" s="2">
+        <v>74</v>
+      </c>
       <c r="L19" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D20" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>21</v>
@@ -1622,28 +1880,30 @@
         <v>11</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K20" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="K20" s="2">
+        <v>69</v>
+      </c>
       <c r="L20" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D21" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>21</v>
@@ -1658,34 +1918,36 @@
         <v>11</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K21" s="1"/>
+      <c r="K21" s="2">
+        <v>65</v>
+      </c>
       <c r="L21" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D22" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>19</v>
@@ -1694,22 +1956,24 @@
         <v>11</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K22" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="K22" s="1">
+        <v>81</v>
+      </c>
       <c r="L22" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>15</v>
@@ -1718,10 +1982,10 @@
         <v>1</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>19</v>
@@ -1730,22 +1994,24 @@
         <v>11</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K23" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="K23" s="1">
+        <v>78</v>
+      </c>
       <c r="L23" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>15</v>
@@ -1754,10 +2020,10 @@
         <v>1</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>19</v>
@@ -1766,22 +2032,24 @@
         <v>11</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K24" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="K24" s="1">
+        <v>75</v>
+      </c>
       <c r="L24" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>15</v>
@@ -1790,10 +2058,10 @@
         <v>0</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>19</v>
@@ -1802,202 +2070,214 @@
         <v>11</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="J25" s="1"/>
-      <c r="K25" s="2">
-        <v>75</v>
+        <v>107</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K25" s="1">
+        <v>70</v>
       </c>
       <c r="L25" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="1" t="b">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" t="b">
         <v>0</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="J26" s="1"/>
-      <c r="K26" s="2">
-        <v>74</v>
-      </c>
-      <c r="L26" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I26" t="s">
+        <v>115</v>
+      </c>
+      <c r="J26" t="s">
+        <v>13</v>
+      </c>
+      <c r="K26" s="1">
+        <v>91</v>
+      </c>
+      <c r="L26" s="3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="1" t="b">
-        <v>0</v>
+      <c r="D27" t="b">
+        <v>1</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I27" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K27" s="1">
+        <v>83</v>
+      </c>
+      <c r="L27" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>111</v>
       </c>
-      <c r="J27" s="1"/>
-      <c r="K27" s="2">
-        <v>69</v>
-      </c>
-      <c r="L27" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="1" t="b">
-        <v>0</v>
+      <c r="B28" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="J28" s="1"/>
-      <c r="K28" s="2">
-        <v>65</v>
-      </c>
-      <c r="L28" s="2">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I28" t="s">
+        <v>116</v>
+      </c>
+      <c r="J28" t="s">
+        <v>13</v>
+      </c>
+      <c r="K28" s="1">
+        <v>80</v>
+      </c>
+      <c r="L28" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D29" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K29" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="K29" s="1">
+        <v>84</v>
+      </c>
       <c r="L29" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D30" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I30" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K30" s="1">
+        <v>82</v>
+      </c>
+      <c r="L30" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K30" s="1"/>
-      <c r="L30" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>15</v>
@@ -2006,118 +2286,124 @@
         <v>1</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K31" s="1"/>
+      <c r="K31" s="1">
+        <v>81</v>
+      </c>
       <c r="L31" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D32" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K32" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="K32" s="1">
+        <v>88</v>
+      </c>
       <c r="L32" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="D33" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="J33" s="1"/>
+        <v>116</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="K33" s="1">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="L33" s="2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>124</v>
-      </c>
-      <c r="B34" t="s">
-        <v>125</v>
-      </c>
-      <c r="C34" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" t="b">
-        <v>0</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>25</v>
@@ -2125,35 +2411,37 @@
       <c r="H34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I34" t="s">
-        <v>132</v>
-      </c>
-      <c r="J34" t="s">
-        <v>13</v>
-      </c>
-      <c r="K34" s="1"/>
-      <c r="L34" s="3">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>126</v>
-      </c>
-      <c r="B35" t="s">
-        <v>127</v>
-      </c>
-      <c r="C35" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" t="b">
-        <v>1</v>
+      <c r="I34" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K34" s="1">
+        <v>78</v>
+      </c>
+      <c r="L34" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>25</v>
@@ -2161,35 +2449,37 @@
       <c r="H35" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I35" t="s">
-        <v>133</v>
-      </c>
-      <c r="J35" t="s">
-        <v>13</v>
-      </c>
-      <c r="K35" s="1"/>
-      <c r="L35" s="3">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I35" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K35" s="1">
+        <v>74</v>
+      </c>
+      <c r="L35" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D36" t="b">
+      <c r="D36" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>25</v>
@@ -2198,34 +2488,36 @@
         <v>11</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K36" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="K36" s="1">
+        <v>78</v>
+      </c>
       <c r="L36" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" t="b">
+        <v>20</v>
+      </c>
+      <c r="D37" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>25</v>
@@ -2234,31 +2526,33 @@
         <v>11</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K37" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="K37" s="1">
+        <v>75</v>
+      </c>
       <c r="L37" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="D38" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>27</v>
@@ -2270,34 +2564,36 @@
         <v>11</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K38" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="K38" s="1">
+        <v>75</v>
+      </c>
       <c r="L38" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="D39" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>25</v>
@@ -2306,34 +2602,36 @@
         <v>11</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K39" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="K39" s="1">
+        <v>85</v>
+      </c>
       <c r="L39" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D40" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>25</v>
@@ -2342,34 +2640,36 @@
         <v>11</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K40" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="K40" s="1">
+        <v>84</v>
+      </c>
       <c r="L40" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D41" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>25</v>
@@ -2378,34 +2678,36 @@
         <v>11</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K41" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="K41" s="1">
+        <v>76</v>
+      </c>
       <c r="L41" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>141</v>
+        <v>55</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D42" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>25</v>
@@ -2414,58 +2716,62 @@
         <v>11</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K42" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="K42" s="1">
+        <v>74</v>
+      </c>
       <c r="L42" s="2">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="D43" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K43" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="K43" s="1">
+        <v>93</v>
+      </c>
       <c r="L43" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>16</v>
@@ -2474,34 +2780,36 @@
         <v>1</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K44" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="K44" s="1">
+        <v>88</v>
+      </c>
       <c r="L44" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>15</v>
@@ -2510,34 +2818,36 @@
         <v>1</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K45" s="1"/>
+      <c r="K45" s="1">
+        <v>80</v>
+      </c>
       <c r="L45" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>15</v>
@@ -2546,65 +2856,69 @@
         <v>0</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="J46" s="1"/>
+        <v>152</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="K46" s="1">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L46" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D47" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I47" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D47" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="J47" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K47" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="K47" s="1">
+        <v>84</v>
+      </c>
       <c r="L47" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>153</v>
       </c>
@@ -2618,106 +2932,112 @@
         <v>1</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K48" s="1">
+        <v>84</v>
+      </c>
+      <c r="L48" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K48" s="1"/>
-      <c r="L48" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="C49" s="1" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="D49" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K49" s="1"/>
+      <c r="K49" s="1">
+        <v>85</v>
+      </c>
       <c r="L49" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>158</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>160</v>
+      </c>
+      <c r="B50" t="s">
+        <v>161</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D50" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K50" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="K50" s="1">
+        <v>73</v>
+      </c>
       <c r="L50" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>158</v>
+      </c>
+      <c r="B51" t="s">
         <v>159</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>15</v>
@@ -2726,126 +3046,200 @@
         <v>0</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="J51" s="1"/>
+        <v>151</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="K51" s="1">
+        <v>70</v>
+      </c>
+      <c r="L51" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K52" s="1">
+        <v>89</v>
+      </c>
+      <c r="L52" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K53" s="1">
+        <v>84</v>
+      </c>
+      <c r="L53" s="2">
         <v>75</v>
       </c>
-      <c r="L51" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="2"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="2"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
+      <c r="A54" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="E54" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K54" s="1">
+        <v>76</v>
+      </c>
+      <c r="L54" s="2">
+        <v>76</v>
+      </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
+      <c r="A55" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="E55" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="2"/>
-    </row>
-    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K55" s="1">
+        <v>76</v>
+      </c>
+      <c r="L55" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="E56" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>34</v>
@@ -2853,21 +3247,37 @@
       <c r="H56" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="2"/>
-    </row>
-    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
+      <c r="I56" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K56" s="1">
+        <v>74</v>
+      </c>
+      <c r="L56" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="E57" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>34</v>
@@ -2875,260 +3285,452 @@
       <c r="H57" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="2"/>
-    </row>
-    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
+      <c r="I57" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K57" s="1">
+        <v>69</v>
+      </c>
+      <c r="L57" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D58" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="E58" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="2"/>
-    </row>
-    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
+      <c r="I58" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K58" s="1">
+        <v>89</v>
+      </c>
+      <c r="L58" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="E59" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="2"/>
-    </row>
-    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
+      <c r="I59" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K59" s="1">
+        <v>78</v>
+      </c>
+      <c r="L59" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="E60" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="2"/>
-    </row>
-    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
+      <c r="I60" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K60" s="1">
+        <v>76</v>
+      </c>
+      <c r="L60" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="E61" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="2"/>
-    </row>
-    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
+      <c r="I61" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K61" s="1">
+        <v>93</v>
+      </c>
+      <c r="L61" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D62" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="E62" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="2"/>
-    </row>
-    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
+      <c r="I62" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K62" s="1">
+        <v>91</v>
+      </c>
+      <c r="L62" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D63" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="E63" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="2"/>
-    </row>
-    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
+      <c r="I63" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K63" s="1">
+        <v>81</v>
+      </c>
+      <c r="L63" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="E64" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-      <c r="L64" s="2"/>
-    </row>
-    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
+      <c r="I64" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K64" s="1">
+        <v>75</v>
+      </c>
+      <c r="L64" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="E65" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-      <c r="L65" s="2"/>
-    </row>
-    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
+      <c r="I65" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K65" s="1">
+        <v>75</v>
+      </c>
+      <c r="L65" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D66" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="E66" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="2"/>
-    </row>
-    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
+      <c r="I66" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K66" s="1">
+        <v>70</v>
+      </c>
+      <c r="L66" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D67" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="E67" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-      <c r="L67" s="2"/>
-    </row>
-    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
+      <c r="I67" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K67" s="1">
+        <v>90</v>
+      </c>
+      <c r="L67" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="E68" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-      <c r="L68" s="2"/>
-    </row>
-    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
+      <c r="I68" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K68" s="1">
+        <v>83</v>
+      </c>
+      <c r="L68" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="E69" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>39</v>
@@ -3139,18 +3741,34 @@
       <c r="H69" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="1"/>
-      <c r="L69" s="2"/>
-    </row>
-    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
+      <c r="I69" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K69" s="1">
+        <v>68</v>
+      </c>
+      <c r="L69" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="E70" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>39</v>
@@ -3161,758 +3779,961 @@
       <c r="H70" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
-      <c r="L70" s="2"/>
-    </row>
-    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
+      <c r="I70" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K70" s="1">
+        <v>65</v>
+      </c>
+      <c r="L70" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="E71" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="1"/>
-      <c r="L71" s="2"/>
-    </row>
-    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
+      <c r="I71" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K71" s="1">
+        <v>87</v>
+      </c>
+      <c r="L71" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="E72" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
-      <c r="L72" s="2"/>
-    </row>
-    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
+      <c r="I72" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K72" s="1">
+        <v>84</v>
+      </c>
+      <c r="L72" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D73" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="E73" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-      <c r="L73" s="2"/>
-    </row>
-    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
+      <c r="I73" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K73" s="1">
+        <v>84</v>
+      </c>
+      <c r="L73" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D74" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="E74" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-      <c r="L74" s="2"/>
-    </row>
-    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
+      <c r="I74" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K74" s="1">
+        <v>82</v>
+      </c>
+      <c r="L74" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D75" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="E75" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
-      <c r="L75" s="2"/>
-    </row>
-    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
+      <c r="I75" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K75" s="1">
+        <v>78</v>
+      </c>
+      <c r="L75" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D76" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="E76" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
-      <c r="L76" s="2"/>
-    </row>
-    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
+      <c r="I76" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K76" s="1">
+        <v>77</v>
+      </c>
+      <c r="L76" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D77" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="E77" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
-      <c r="L77" s="2"/>
-    </row>
-    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
+      <c r="I77" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K77" s="1">
+        <v>77</v>
+      </c>
+      <c r="L77" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="E78" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-      <c r="L78" s="2"/>
-    </row>
-    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
+      <c r="I78" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K78" s="1">
+        <v>68</v>
+      </c>
+      <c r="L78" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D79" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="E79" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
-      <c r="L79" s="2"/>
-    </row>
-    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
+      <c r="I79" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K79" s="1">
+        <v>82</v>
+      </c>
+      <c r="L79" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="E80" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
+      <c r="I80" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K80" s="1">
+        <v>82</v>
+      </c>
+      <c r="L80" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D81" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="E81" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
-      <c r="L81" s="2"/>
-    </row>
-    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
+      <c r="I81" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K81" s="1">
+        <v>78</v>
+      </c>
+      <c r="L81" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D82" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="E82" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
-      <c r="L82" s="2"/>
-    </row>
-    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
+      <c r="I82" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K82" s="1">
+        <v>85</v>
+      </c>
+      <c r="L82" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="E83" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G83" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
-      <c r="K83" s="1"/>
-      <c r="L83" s="2"/>
-    </row>
-    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
+      <c r="I83" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K83" s="1">
+        <v>77</v>
+      </c>
+      <c r="L83" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="E84" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G84" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
-      <c r="K84" s="1"/>
-      <c r="L84" s="2"/>
-    </row>
-    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
+      <c r="I84" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K84" s="1">
+        <v>69</v>
+      </c>
+      <c r="L84" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="E85" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
-      <c r="K85" s="1"/>
-      <c r="L85" s="2"/>
-    </row>
-    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K85" s="1">
+        <v>69</v>
+      </c>
+      <c r="L85" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D86" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="E86" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
-      <c r="K86" s="1"/>
-      <c r="L86" s="2"/>
-    </row>
-    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I87" s="1"/>
-      <c r="J87" s="1"/>
-      <c r="K87" s="1"/>
-      <c r="L87" s="2"/>
-    </row>
-    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
-      <c r="K88" s="1"/>
-      <c r="L88" s="2"/>
-    </row>
-    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K86" s="1">
+        <v>76</v>
+      </c>
+      <c r="L86" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
-      <c r="E89" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
       <c r="L89" s="2"/>
     </row>
-    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
-      <c r="E90" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
       <c r="L90" s="2"/>
     </row>
-    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
-      <c r="E91" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
       <c r="L91" s="2"/>
     </row>
-    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
-      <c r="E92" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
       <c r="L92" s="2"/>
     </row>
-    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
-      <c r="E93" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
       <c r="L93" s="2"/>
     </row>
-    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
-      <c r="E94" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
       <c r="L94" s="2"/>
     </row>
-    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
-      <c r="E95" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
       <c r="L95" s="2"/>
     </row>
-    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
-      <c r="E96" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
       <c r="L96" s="2"/>
     </row>
-    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
       <c r="L97" s="2"/>
     </row>
-    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
-      <c r="E98" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
       <c r="L98" s="2"/>
     </row>
-    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
-      <c r="E99" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
       <c r="L99" s="2"/>
     </row>
-    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
-      <c r="E100" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
       <c r="L100" s="2"/>
     </row>
-    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
-      <c r="E101" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
       <c r="L101" s="2"/>
     </row>
-    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
-      <c r="E102" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H102" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
       <c r="L102" s="2"/>
     </row>
-    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
-      <c r="E103" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
       <c r="L103" s="2"/>
     </row>
-    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
-      <c r="E104" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
       <c r="L104" s="2"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="2"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="2"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+      <c r="L107" s="2"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="2"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="2"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="2"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="2"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/datasets/roster_san_diego_state.xlsx
+++ b/data/datasets/roster_san_diego_state.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdpet\Documents\Post School Coursework\data_projects\cfb-analysis\data\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4934692-B7FC-410A-82BF-DC0E0CFCE655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E099970-E651-49C2-817F-A535F083DB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1112,9 +1112,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/data/datasets/roster_san_diego_state.xlsx
+++ b/data/datasets/roster_san_diego_state.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdpet\Documents\Post School Coursework\data_projects\cfb-analysis\data\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E099970-E651-49C2-817F-A535F083DB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B644A96A-0CE1-4C0F-B919-49EDC32F0207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2029" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -1112,7 +1112,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1203,7 +1205,7 @@
         <v>86</v>
       </c>
       <c r="L2" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -1241,7 +1243,7 @@
         <v>86</v>
       </c>
       <c r="L3" s="2">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -1317,7 +1319,7 @@
         <v>89</v>
       </c>
       <c r="L5" s="2">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -1355,7 +1357,7 @@
         <v>87</v>
       </c>
       <c r="L6" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -1431,7 +1433,7 @@
         <v>83</v>
       </c>
       <c r="L8" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -1469,7 +1471,7 @@
         <v>74</v>
       </c>
       <c r="L9" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -1583,7 +1585,7 @@
         <v>85</v>
       </c>
       <c r="L12" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -1621,7 +1623,7 @@
         <v>85</v>
       </c>
       <c r="L13" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -1735,7 +1737,7 @@
         <v>81</v>
       </c>
       <c r="L16" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -1773,7 +1775,7 @@
         <v>81</v>
       </c>
       <c r="L17" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -2001,7 +2003,7 @@
         <v>78</v>
       </c>
       <c r="L23" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -2039,7 +2041,7 @@
         <v>75</v>
       </c>
       <c r="L24" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -2115,7 +2117,7 @@
         <v>91</v>
       </c>
       <c r="L26" s="3">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -2153,7 +2155,7 @@
         <v>83</v>
       </c>
       <c r="L27" s="2">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -2229,7 +2231,7 @@
         <v>84</v>
       </c>
       <c r="L29" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -2305,7 +2307,7 @@
         <v>81</v>
       </c>
       <c r="L31" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -2343,7 +2345,7 @@
         <v>88</v>
       </c>
       <c r="L32" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -2419,7 +2421,7 @@
         <v>78</v>
       </c>
       <c r="L34" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -2495,7 +2497,7 @@
         <v>78</v>
       </c>
       <c r="L36" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -2533,7 +2535,7 @@
         <v>75</v>
       </c>
       <c r="L37" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -2609,7 +2611,7 @@
         <v>85</v>
       </c>
       <c r="L39" s="2">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -2647,7 +2649,7 @@
         <v>84</v>
       </c>
       <c r="L40" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -2685,7 +2687,7 @@
         <v>76</v>
       </c>
       <c r="L41" s="2">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -2761,7 +2763,7 @@
         <v>93</v>
       </c>
       <c r="L43" s="2">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -2837,7 +2839,7 @@
         <v>80</v>
       </c>
       <c r="L45" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -2913,7 +2915,7 @@
         <v>84</v>
       </c>
       <c r="L47" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -2951,7 +2953,7 @@
         <v>84</v>
       </c>
       <c r="L48" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -3027,7 +3029,7 @@
         <v>73</v>
       </c>
       <c r="L50" s="2">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -3103,7 +3105,7 @@
         <v>89</v>
       </c>
       <c r="L52" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -3141,7 +3143,7 @@
         <v>84</v>
       </c>
       <c r="L53" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -3331,7 +3333,7 @@
         <v>89</v>
       </c>
       <c r="L58" s="2">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -3407,7 +3409,7 @@
         <v>76</v>
       </c>
       <c r="L60" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -3445,7 +3447,7 @@
         <v>93</v>
       </c>
       <c r="L61" s="2">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -3559,7 +3561,7 @@
         <v>75</v>
       </c>
       <c r="L64" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -3673,7 +3675,7 @@
         <v>90</v>
       </c>
       <c r="L67" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -3711,7 +3713,7 @@
         <v>83</v>
       </c>
       <c r="L68" s="2">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -3825,7 +3827,7 @@
         <v>87</v>
       </c>
       <c r="L71" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -3863,7 +3865,7 @@
         <v>84</v>
       </c>
       <c r="L72" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -3901,7 +3903,7 @@
         <v>84</v>
       </c>
       <c r="L73" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
@@ -3939,7 +3941,7 @@
         <v>82</v>
       </c>
       <c r="L74" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -4015,7 +4017,7 @@
         <v>77</v>
       </c>
       <c r="L76" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -4129,7 +4131,7 @@
         <v>82</v>
       </c>
       <c r="L79" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -4167,7 +4169,7 @@
         <v>82</v>
       </c>
       <c r="L80" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
@@ -4243,7 +4245,7 @@
         <v>85</v>
       </c>
       <c r="L82" s="2">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
@@ -4319,7 +4321,7 @@
         <v>69</v>
       </c>
       <c r="L84" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
@@ -4357,7 +4359,7 @@
         <v>69</v>
       </c>
       <c r="L85" s="2">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
@@ -4395,7 +4397,7 @@
         <v>76</v>
       </c>
       <c r="L86" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">

--- a/data/datasets/roster_san_diego_state.xlsx
+++ b/data/datasets/roster_san_diego_state.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdpet\Documents\Post School Coursework\data_projects\cfb-analysis\data\datasets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78A53DF-4AD2-41CA-9F7F-289E6A3DE809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2029" sheetId="1" r:id="rId1"/>
     <sheet name="2030" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="292">
   <si>
     <t>first_name</t>
   </si>
@@ -726,16 +732,181 @@
   </si>
   <si>
     <t>P</t>
+  </si>
+  <si>
+    <t>Fox</t>
+  </si>
+  <si>
+    <t>Jalen</t>
+  </si>
+  <si>
+    <t>Scruggs</t>
+  </si>
+  <si>
+    <t>improviser</t>
+  </si>
+  <si>
+    <t>Logan</t>
+  </si>
+  <si>
+    <t>Capobianco</t>
+  </si>
+  <si>
+    <t>Shareef</t>
+  </si>
+  <si>
+    <t>Rahman</t>
+  </si>
+  <si>
+    <t>utility</t>
+  </si>
+  <si>
+    <t>Daryl</t>
+  </si>
+  <si>
+    <t>Brockel</t>
+  </si>
+  <si>
+    <t>Gene</t>
+  </si>
+  <si>
+    <t>Kauffman</t>
+  </si>
+  <si>
+    <t>Markus</t>
+  </si>
+  <si>
+    <t>Johns</t>
+  </si>
+  <si>
+    <t>Rosas</t>
+  </si>
+  <si>
+    <t>Deon</t>
+  </si>
+  <si>
+    <t>Derr</t>
+  </si>
+  <si>
+    <t>Earl</t>
+  </si>
+  <si>
+    <t>Stepnoski</t>
+  </si>
+  <si>
+    <t>Barnhardt</t>
+  </si>
+  <si>
+    <t>Eric</t>
+  </si>
+  <si>
+    <t>Carmona</t>
+  </si>
+  <si>
+    <t>Shaq</t>
+  </si>
+  <si>
+    <t>Zaire</t>
+  </si>
+  <si>
+    <t>Forsett</t>
+  </si>
+  <si>
+    <t>Treadwell</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Ferrell</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Ricky</t>
+  </si>
+  <si>
+    <t>StJohn</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>Goode</t>
+  </si>
+  <si>
+    <t>Mitch</t>
+  </si>
+  <si>
+    <t>Bone</t>
+  </si>
+  <si>
+    <t>Viliami</t>
+  </si>
+  <si>
+    <t>Wang</t>
+  </si>
+  <si>
+    <t>Saylor</t>
+  </si>
+  <si>
+    <t>Volk</t>
+  </si>
+  <si>
+    <t>Joseph</t>
+  </si>
+  <si>
+    <t>Sisk</t>
+  </si>
+  <si>
+    <t>Danny</t>
+  </si>
+  <si>
+    <t>Prude</t>
+  </si>
+  <si>
+    <t>Love</t>
+  </si>
+  <si>
+    <t>Manu</t>
+  </si>
+  <si>
+    <t>Savoie</t>
+  </si>
+  <si>
+    <t>Kemani</t>
+  </si>
+  <si>
+    <t>Boon</t>
+  </si>
+  <si>
+    <t>Heath</t>
+  </si>
+  <si>
+    <t>Gaines</t>
+  </si>
+  <si>
+    <t>Clayton</t>
+  </si>
+  <si>
+    <t>Angel</t>
+  </si>
+  <si>
+    <t>hybrid</t>
+  </si>
+  <si>
+    <t>Mosely</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0;[Red]-#,##0"/>
+    <numFmt numFmtId="164" formatCode="#,##0;[Red]\-#,##0"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -764,7 +935,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -772,66 +943,80 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf/>
+  <dxfs count="3">
     <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0;[Red]-#,##0"/>
+      <numFmt numFmtId="164" formatCode="#,##0;[Red]\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0;[Red]\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0;[Red]\-#,##0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:L86" totalsRowShown="0">
-  <autoFilter ref="A1:L86"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Frame0" displayName="Frame0" ref="A1:L86" totalsRowShown="0">
+  <autoFilter ref="A1:L86" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="first_name" dataDxfId="0"/>
-    <tableColumn id="2" name="last_name" dataDxfId="0"/>
-    <tableColumn id="3" name="class" dataDxfId="0"/>
-    <tableColumn id="4" name="red_shirt" dataDxfId="0"/>
-    <tableColumn id="5" name="position" dataDxfId="0"/>
-    <tableColumn id="6" name="group" dataDxfId="0"/>
-    <tableColumn id="7" name="secondary_group" dataDxfId="0"/>
-    <tableColumn id="8" name="team" dataDxfId="0"/>
-    <tableColumn id="9" name="archetype" dataDxfId="0"/>
-    <tableColumn id="10" name="dev_trait" dataDxfId="0"/>
-    <tableColumn id="11" name="overall_start" dataDxfId="1"/>
-    <tableColumn id="12" name="overall_end" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="first_name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="last_name"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="class"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="red_shirt"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="position"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="group"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="secondary_group"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="team"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="archetype"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="dev_trait"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="overall_start" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="overall_end" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Frame1" displayName="Frame1" ref="A1:L74" totalsRowShown="0">
-  <autoFilter ref="A1:L74"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Frame1" displayName="Frame1" ref="A1:L86" totalsRowShown="0">
+  <autoFilter ref="A1:L86" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="first_name" dataDxfId="0"/>
-    <tableColumn id="2" name="last_name" dataDxfId="0"/>
-    <tableColumn id="3" name="class" dataDxfId="0"/>
-    <tableColumn id="4" name="red_shirt" dataDxfId="0"/>
-    <tableColumn id="5" name="position" dataDxfId="0"/>
-    <tableColumn id="6" name="group" dataDxfId="0"/>
-    <tableColumn id="7" name="secondary_group" dataDxfId="0"/>
-    <tableColumn id="8" name="team" dataDxfId="0"/>
-    <tableColumn id="9" name="archetype" dataDxfId="0"/>
-    <tableColumn id="10" name="dev_trait" dataDxfId="0"/>
-    <tableColumn id="11" name="overall_start" dataDxfId="1"/>
-    <tableColumn id="12" name="overall_end" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="first_name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="last_name"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="class"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="red_shirt"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="position"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="group"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="secondary_group"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="team"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="archetype"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="dev_trait"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="overall_start" dataDxfId="0"/>
+    <tableColumn id="12" xr3:uid="{DBA715AB-B167-4F66-BA52-A8F51F026E8B}" name="overall_end"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -869,7 +1054,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -903,6 +1088,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -937,9 +1123,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1112,14 +1299,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A58" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1157,7 +1344,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1195,7 +1382,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -1233,7 +1420,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -1271,7 +1458,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -1309,7 +1496,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
@@ -1347,7 +1534,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>35</v>
       </c>
@@ -1385,7 +1572,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
@@ -1423,7 +1610,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>40</v>
       </c>
@@ -1461,7 +1648,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -1499,7 +1686,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>45</v>
       </c>
@@ -1537,7 +1724,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
@@ -1575,7 +1762,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>54</v>
       </c>
@@ -1613,7 +1800,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>56</v>
       </c>
@@ -1651,7 +1838,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>58</v>
       </c>
@@ -1689,7 +1876,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>60</v>
       </c>
@@ -1727,7 +1914,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>62</v>
       </c>
@@ -1765,7 +1952,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>64</v>
       </c>
@@ -1803,7 +1990,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>66</v>
       </c>
@@ -1841,7 +2028,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
@@ -1879,7 +2066,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>70</v>
       </c>
@@ -1917,7 +2104,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>72</v>
       </c>
@@ -1955,7 +2142,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>76</v>
       </c>
@@ -1993,7 +2180,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>79</v>
       </c>
@@ -2031,7 +2218,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>13</v>
       </c>
@@ -2069,7 +2256,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>82</v>
       </c>
@@ -2107,7 +2294,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>88</v>
       </c>
@@ -2145,7 +2332,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>90</v>
       </c>
@@ -2183,7 +2370,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>93</v>
       </c>
@@ -2221,7 +2408,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>97</v>
       </c>
@@ -2259,7 +2446,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>99</v>
       </c>
@@ -2297,7 +2484,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>101</v>
       </c>
@@ -2335,7 +2522,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>62</v>
       </c>
@@ -2373,7 +2560,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>105</v>
       </c>
@@ -2411,7 +2598,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>107</v>
       </c>
@@ -2449,7 +2636,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>110</v>
       </c>
@@ -2487,7 +2674,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>113</v>
       </c>
@@ -2525,7 +2712,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>115</v>
       </c>
@@ -2563,7 +2750,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>117</v>
       </c>
@@ -2601,7 +2788,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>120</v>
       </c>
@@ -2639,7 +2826,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>122</v>
       </c>
@@ -2677,7 +2864,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>12</v>
       </c>
@@ -2715,7 +2902,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>33</v>
       </c>
@@ -2753,7 +2940,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>131</v>
       </c>
@@ -2791,7 +2978,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>133</v>
       </c>
@@ -2829,7 +3016,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>136</v>
       </c>
@@ -2867,7 +3054,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>138</v>
       </c>
@@ -2905,7 +3092,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>141</v>
       </c>
@@ -2943,7 +3130,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>143</v>
       </c>
@@ -2981,7 +3168,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>144</v>
       </c>
@@ -3019,7 +3206,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>147</v>
       </c>
@@ -3057,7 +3244,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>149</v>
       </c>
@@ -3095,7 +3282,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>152</v>
       </c>
@@ -3133,7 +3320,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>154</v>
       </c>
@@ -3171,7 +3358,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>156</v>
       </c>
@@ -3209,7 +3396,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>158</v>
       </c>
@@ -3247,7 +3434,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>160</v>
       </c>
@@ -3285,7 +3472,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>162</v>
       </c>
@@ -3323,7 +3510,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>167</v>
       </c>
@@ -3361,7 +3548,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>169</v>
       </c>
@@ -3399,7 +3586,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>136</v>
       </c>
@@ -3437,7 +3624,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>174</v>
       </c>
@@ -3475,7 +3662,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>176</v>
       </c>
@@ -3513,7 +3700,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>178</v>
       </c>
@@ -3551,7 +3738,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>180</v>
       </c>
@@ -3589,7 +3776,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>182</v>
       </c>
@@ -3627,7 +3814,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>184</v>
       </c>
@@ -3665,7 +3852,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>187</v>
       </c>
@@ -3703,7 +3890,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>189</v>
       </c>
@@ -3741,7 +3928,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>191</v>
       </c>
@@ -3779,7 +3966,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>193</v>
       </c>
@@ -3817,7 +4004,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>198</v>
       </c>
@@ -3855,7 +4042,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>201</v>
       </c>
@@ -3893,7 +4080,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>203</v>
       </c>
@@ -3931,7 +4118,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>205</v>
       </c>
@@ -3969,7 +4156,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>208</v>
       </c>
@@ -4007,7 +4194,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>210</v>
       </c>
@@ -4045,7 +4232,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>212</v>
       </c>
@@ -4083,7 +4270,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>214</v>
       </c>
@@ -4121,7 +4308,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>219</v>
       </c>
@@ -4159,7 +4346,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>221</v>
       </c>
@@ -4197,7 +4384,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>223</v>
       </c>
@@ -4235,7 +4422,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>226</v>
       </c>
@@ -4273,7 +4460,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>228</v>
       </c>
@@ -4311,7 +4498,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>230</v>
       </c>
@@ -4349,7 +4536,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>234</v>
       </c>
@@ -4396,14 +4583,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L107"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4441,18 +4644,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D2" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>15</v>
@@ -4470,23 +4673,25 @@
         <v>17</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="K2" s="2">
+        <v>93</v>
+      </c>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D3" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>15</v>
@@ -4504,12 +4709,14 @@
         <v>17</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="K3" s="2">
+        <v>86</v>
+      </c>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -4517,10 +4724,10 @@
         <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>15</v>
@@ -4540,86 +4747,92 @@
       <c r="J4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="2"/>
+      <c r="K4" s="2">
+        <v>80</v>
+      </c>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="2">
+        <v>78</v>
+      </c>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>240</v>
+      </c>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="3">
+        <v>78</v>
+      </c>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="D5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="D7" s="1" t="b">
         <v>1</v>
@@ -4642,21 +4855,23 @@
       <c r="J7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="2"/>
+      <c r="K7" s="2">
+        <v>94</v>
+      </c>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D8" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>28</v>
@@ -4671,29 +4886,31 @@
         <v>16</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="2"/>
+      <c r="K8" s="2">
+        <v>82</v>
+      </c>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>241</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>46</v>
+        <v>242</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D9" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>29</v>
@@ -4705,32 +4922,34 @@
         <v>16</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K9" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="K9" s="2">
+        <v>80</v>
+      </c>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D10" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>30</v>
@@ -4739,32 +4958,34 @@
         <v>16</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="K10" s="2">
+        <v>78</v>
+      </c>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="1" t="b">
-        <v>1</v>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>243</v>
+      </c>
+      <c r="B11" t="s">
+        <v>244</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>30</v>
@@ -4772,33 +4993,35 @@
       <c r="H11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="1" t="b">
-        <v>1</v>
+      <c r="I11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="3">
+        <v>79</v>
+      </c>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>246</v>
+      </c>
+      <c r="B12" t="s">
+        <v>247</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>30</v>
@@ -4806,33 +5029,35 @@
       <c r="H12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J12" s="1" t="s">
+      <c r="I12" t="s">
+        <v>245</v>
+      </c>
+      <c r="J12" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="K12" s="3">
+        <v>75</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="D13" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>30</v>
@@ -4841,20 +5066,22 @@
         <v>16</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>53</v>
+        <v>245</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K13" s="2"/>
+      <c r="K13" s="2">
+        <v>74</v>
+      </c>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>14</v>
@@ -4878,23 +5105,25 @@
         <v>53</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K14" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="K14" s="2">
+        <v>90</v>
+      </c>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D15" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>52</v>
@@ -4914,21 +5143,23 @@
       <c r="J15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K15" s="2"/>
+      <c r="K15" s="2">
+        <v>86</v>
+      </c>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="D16" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>52</v>
@@ -4943,26 +5174,28 @@
         <v>16</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K16" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="K16" s="2">
+        <v>85</v>
+      </c>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D17" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>52</v>
@@ -4977,26 +5210,28 @@
         <v>16</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="K17" s="2">
+        <v>81</v>
+      </c>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D18" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>52</v>
@@ -5011,32 +5246,34 @@
         <v>16</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K18" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="K18" s="2">
+        <v>79</v>
+      </c>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>76</v>
+        <v>248</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>77</v>
+        <v>249</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D19" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>30</v>
@@ -5045,32 +5282,34 @@
         <v>16</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K19" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="K19" s="2">
+        <v>80</v>
+      </c>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>80</v>
+        <v>251</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D20" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>30</v>
@@ -5079,32 +5318,34 @@
         <v>16</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K20" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="K20" s="2">
+        <v>77</v>
+      </c>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>81</v>
+        <v>252</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D21" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>30</v>
@@ -5113,270 +5354,286 @@
         <v>16</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K21" s="2"/>
+      <c r="K21" s="2">
+        <v>75</v>
+      </c>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" s="2">
+        <v>75</v>
+      </c>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" s="2">
+        <v>73</v>
+      </c>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24" s="2">
+        <v>83</v>
+      </c>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K25" s="2">
+        <v>84</v>
+      </c>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K26" s="2">
+        <v>76</v>
+      </c>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="2">
+        <v>74</v>
+      </c>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>258</v>
+      </c>
+      <c r="B28" t="s">
+        <v>259</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" t="s">
+        <v>75</v>
+      </c>
+      <c r="J28" t="s">
+        <v>32</v>
+      </c>
+      <c r="K28" s="2">
+        <v>73</v>
+      </c>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D29" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>86</v>
@@ -5385,32 +5642,34 @@
         <v>16</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K29" s="2"/>
+      <c r="K29" s="2">
+        <v>88</v>
+      </c>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>110</v>
+        <v>260</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>111</v>
+        <v>263</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D30" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>86</v>
@@ -5419,32 +5678,34 @@
         <v>16</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K30" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="K30" s="2">
+        <v>80</v>
+      </c>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" s="1" t="b">
-        <v>1</v>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>261</v>
+      </c>
+      <c r="B31" t="s">
+        <v>262</v>
+      </c>
+      <c r="C31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" t="b">
+        <v>0</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>86</v>
@@ -5452,30 +5713,32 @@
       <c r="H31" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I31" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="I31" t="s">
+        <v>109</v>
+      </c>
+      <c r="J31" t="s">
+        <v>32</v>
+      </c>
+      <c r="K31" s="3">
+        <v>69</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="D32" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>96</v>
@@ -5487,32 +5750,34 @@
         <v>16</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K32" s="2"/>
+      <c r="K32" s="2">
+        <v>86</v>
+      </c>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D33" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>86</v>
@@ -5521,32 +5786,34 @@
         <v>16</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K33" s="2"/>
+      <c r="K33" s="2">
+        <v>82</v>
+      </c>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D34" s="1" t="b">
-        <v>1</v>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>264</v>
+      </c>
+      <c r="B34" t="s">
+        <v>265</v>
+      </c>
+      <c r="C34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" t="b">
+        <v>0</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>86</v>
@@ -5554,21 +5821,23 @@
       <c r="H34" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I34" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J34" s="1" t="s">
+      <c r="I34" t="s">
+        <v>109</v>
+      </c>
+      <c r="J34" t="s">
         <v>32</v>
       </c>
-      <c r="K34" s="2"/>
+      <c r="K34" s="2">
+        <v>68</v>
+      </c>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>14</v>
@@ -5577,10 +5846,10 @@
         <v>1</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>86</v>
@@ -5594,27 +5863,29 @@
       <c r="J35" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K35" s="2"/>
+      <c r="K35" s="2">
+        <v>89</v>
+      </c>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D36" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>86</v>
@@ -5626,17 +5897,19 @@
         <v>109</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K36" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="K36" s="2">
+        <v>80</v>
+      </c>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>14</v>
@@ -5645,282 +5918,298 @@
         <v>1</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>129</v>
+        <v>16</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K37" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="K37" s="2">
+        <v>83</v>
+      </c>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D38" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>129</v>
+        <v>16</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K38" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="K38" s="2">
+        <v>77</v>
+      </c>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>27</v>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>266</v>
+      </c>
+      <c r="B39" t="s">
+        <v>188</v>
+      </c>
+      <c r="C39" t="s">
+        <v>24</v>
       </c>
       <c r="D39" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="J39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39" t="s">
+        <v>87</v>
+      </c>
+      <c r="J39" t="s">
         <v>18</v>
       </c>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-    </row>
-    <row r="40" spans="1:12">
+      <c r="K39" s="3">
+        <v>76</v>
+      </c>
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D40" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>129</v>
+        <v>16</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K40" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="K40" s="2">
+        <v>91</v>
+      </c>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="D41" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>129</v>
+        <v>16</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>146</v>
+        <v>92</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K41" s="2"/>
+      <c r="K41" s="2">
+        <v>85</v>
+      </c>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D42" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>129</v>
+        <v>16</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K42" s="2"/>
+      <c r="K42" s="2">
+        <v>79</v>
+      </c>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>152</v>
+        <v>267</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>153</v>
+        <v>268</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D43" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>151</v>
+        <v>85</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>129</v>
+        <v>16</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>146</v>
+        <v>92</v>
       </c>
       <c r="J43" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K43" s="2">
+        <v>78</v>
+      </c>
+      <c r="L43" s="2"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J44" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D44" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K44" s="2"/>
+      <c r="K44" s="2">
+        <v>77</v>
+      </c>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D45" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>128</v>
@@ -5929,32 +6218,34 @@
         <v>129</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K45" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="K45" s="2">
+        <v>86</v>
+      </c>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D46" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>128</v>
@@ -5966,29 +6257,31 @@
         <v>146</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K46" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="K46" s="2">
+        <v>78</v>
+      </c>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D47" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>128</v>
@@ -5997,69 +6290,73 @@
         <v>129</v>
       </c>
       <c r="I47" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K47" s="2">
+        <v>78</v>
+      </c>
+      <c r="L47" s="2"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>269</v>
+      </c>
+      <c r="B48" t="s">
+        <v>270</v>
+      </c>
+      <c r="C48" t="s">
+        <v>24</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H48" t="s">
+        <v>129</v>
+      </c>
+      <c r="I48" t="s">
         <v>130</v>
       </c>
-      <c r="J47" s="1" t="s">
+      <c r="J48" t="s">
         <v>32</v>
       </c>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="A48" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D48" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K48" s="2"/>
+      <c r="K48" s="2">
+        <v>72</v>
+      </c>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="D49" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>129</v>
@@ -6068,264 +6365,280 @@
         <v>135</v>
       </c>
       <c r="J49" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K49" s="2">
+        <v>86</v>
+      </c>
+      <c r="L49" s="2"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D50" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K50" s="3">
+        <v>85</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>271</v>
+      </c>
+      <c r="B51" t="s">
+        <v>272</v>
+      </c>
+      <c r="C51" t="s">
+        <v>24</v>
+      </c>
+      <c r="D51" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I51" t="s">
+        <v>146</v>
+      </c>
+      <c r="J51" t="s">
         <v>21</v>
       </c>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-    </row>
-    <row r="50" spans="1:12">
-      <c r="A50" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C50" s="1" t="s">
+      <c r="K51" s="3">
+        <v>75</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D50" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I50" s="1" t="s">
+      <c r="D52" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I52" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="J50" s="1" t="s">
+      <c r="J52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K52" s="2">
+        <v>86</v>
+      </c>
+      <c r="L52" s="2"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D53" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J53" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-    </row>
-    <row r="51" spans="1:12">
-      <c r="A51" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D51" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-    </row>
-    <row r="52" spans="1:12">
-      <c r="A52" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D52" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-    </row>
-    <row r="53" spans="1:12">
-      <c r="A53" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D53" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K53" s="2"/>
+      <c r="K53" s="2">
+        <v>84</v>
+      </c>
       <c r="L53" s="2"/>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D54" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>129</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K54" s="2"/>
+      <c r="K54" s="2">
+        <v>80</v>
+      </c>
       <c r="L54" s="2"/>
     </row>
-    <row r="55" spans="1:12">
-      <c r="A55" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>14</v>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>273</v>
+      </c>
+      <c r="B55" t="s">
+        <v>274</v>
+      </c>
+      <c r="C55" t="s">
+        <v>24</v>
       </c>
       <c r="D55" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="I55" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="J55" s="1" t="s">
+      <c r="I55" t="s">
+        <v>130</v>
+      </c>
+      <c r="J55" t="s">
         <v>32</v>
       </c>
-      <c r="K55" s="2"/>
+      <c r="K55" s="2">
+        <v>78</v>
+      </c>
       <c r="L55" s="2"/>
     </row>
-    <row r="56" spans="1:12">
-      <c r="A56" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>27</v>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>88</v>
+      </c>
+      <c r="B56" t="s">
+        <v>275</v>
+      </c>
+      <c r="C56" t="s">
+        <v>24</v>
       </c>
       <c r="D56" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="I56" t="s">
         <v>146</v>
       </c>
-      <c r="J56" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K56" s="2"/>
+      <c r="J56" t="s">
+        <v>18</v>
+      </c>
+      <c r="K56" s="2">
+        <v>73</v>
+      </c>
       <c r="L56" s="2"/>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D57" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>165</v>
@@ -6337,29 +6650,31 @@
         <v>129</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K57" s="2"/>
+      <c r="K57" s="2">
+        <v>84</v>
+      </c>
       <c r="L57" s="2"/>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D58" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>165</v>
@@ -6376,24 +6691,26 @@
       <c r="J58" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K58" s="2"/>
+      <c r="K58" s="2">
+        <v>80</v>
+      </c>
       <c r="L58" s="2"/>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>192</v>
+        <v>276</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D59" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>165</v>
@@ -6410,49 +6727,53 @@
       <c r="J59" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K59" s="2"/>
+      <c r="K59" s="2">
+        <v>78</v>
+      </c>
       <c r="L59" s="2"/>
     </row>
-    <row r="60" spans="1:12">
-      <c r="A60" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D60" s="1" t="b">
-        <v>1</v>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>277</v>
+      </c>
+      <c r="B60" t="s">
+        <v>278</v>
+      </c>
+      <c r="C60" t="s">
+        <v>24</v>
+      </c>
+      <c r="D60" t="b">
+        <v>0</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="I60" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="J60" s="1" t="s">
+      <c r="I60" t="s">
+        <v>146</v>
+      </c>
+      <c r="J60" t="s">
         <v>32</v>
       </c>
-      <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
-    </row>
-    <row r="61" spans="1:12">
+      <c r="K60" s="3">
+        <v>70</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>27</v>
@@ -6461,316 +6782,334 @@
         <v>1</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>129</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K61" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="K61" s="2">
+        <v>91</v>
+      </c>
       <c r="L61" s="2"/>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="D62" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>129</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>200</v>
+        <v>135</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K62" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="K62" s="2">
+        <v>80</v>
+      </c>
       <c r="L62" s="2"/>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D63" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K63" s="2">
+        <v>78</v>
+      </c>
+      <c r="L63" s="2"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>279</v>
+      </c>
+      <c r="B64" t="s">
+        <v>280</v>
+      </c>
+      <c r="C64" t="s">
+        <v>24</v>
+      </c>
+      <c r="D64" t="b">
         <v>0</v>
       </c>
-      <c r="E63" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="J63" s="1" t="s">
+      <c r="E64" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I64" t="s">
+        <v>17</v>
+      </c>
+      <c r="J64" t="s">
         <v>18</v>
       </c>
-      <c r="K63" s="2"/>
-      <c r="L63" s="2"/>
-    </row>
-    <row r="64" spans="1:12">
-      <c r="A64" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D64" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K64" s="2"/>
-      <c r="L64" s="2"/>
-    </row>
-    <row r="65" spans="1:12">
+      <c r="K64" s="3">
+        <v>74</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D65" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>129</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>207</v>
+        <v>146</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K65" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="K65" s="2">
+        <v>92</v>
+      </c>
       <c r="L65" s="2"/>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D66" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>129</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>207</v>
+        <v>146</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K66" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="K66" s="2">
+        <v>89</v>
+      </c>
       <c r="L66" s="2"/>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="D67" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>217</v>
+        <v>165</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>129</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>218</v>
+        <v>146</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K67" s="2"/>
+      <c r="K67" s="2">
+        <v>79</v>
+      </c>
       <c r="L67" s="2"/>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>219</v>
+        <v>62</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>220</v>
+        <v>281</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D68" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>217</v>
+        <v>165</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>129</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K68" s="2"/>
+      <c r="K68" s="2">
+        <v>74</v>
+      </c>
       <c r="L68" s="2"/>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="C69" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D69" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K69" s="2">
+        <v>73</v>
+      </c>
+      <c r="L69" s="2"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D69" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K69" s="2"/>
-      <c r="L69" s="2"/>
-    </row>
-    <row r="70" spans="1:12">
-      <c r="A70" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="D70" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>196</v>
@@ -6779,32 +7118,34 @@
         <v>129</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K70" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="K70" s="2">
+        <v>85</v>
+      </c>
       <c r="L70" s="2"/>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D71" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>196</v>
@@ -6813,32 +7154,34 @@
         <v>129</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K71" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="K71" s="2">
+        <v>83</v>
+      </c>
       <c r="L71" s="2"/>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D72" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>196</v>
@@ -6847,86 +7190,763 @@
         <v>129</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K72" s="2"/>
+      <c r="K72" s="2">
+        <v>83</v>
+      </c>
       <c r="L72" s="2"/>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D73" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>232</v>
+        <v>196</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>233</v>
+        <v>129</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>109</v>
+        <v>207</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K73" s="2"/>
+      <c r="K73" s="2">
+        <v>81</v>
+      </c>
       <c r="L73" s="2"/>
     </row>
-    <row r="74" spans="1:12">
-      <c r="A74" s="1" t="s">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>282</v>
+      </c>
+      <c r="B74" t="s">
+        <v>283</v>
+      </c>
+      <c r="C74" t="s">
+        <v>24</v>
+      </c>
+      <c r="D74" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I74" t="s">
+        <v>200</v>
+      </c>
+      <c r="J74" t="s">
+        <v>32</v>
+      </c>
+      <c r="K74" s="2">
+        <v>80</v>
+      </c>
+      <c r="L74" s="2"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>284</v>
+      </c>
+      <c r="B75" t="s">
+        <v>285</v>
+      </c>
+      <c r="C75" t="s">
+        <v>24</v>
+      </c>
+      <c r="D75" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I75" t="s">
+        <v>207</v>
+      </c>
+      <c r="J75" t="s">
+        <v>21</v>
+      </c>
+      <c r="K75" s="2">
+        <v>78</v>
+      </c>
+      <c r="L75" s="2"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D76" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K76" s="2">
+        <v>77</v>
+      </c>
+      <c r="L76" s="2"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>286</v>
+      </c>
+      <c r="B77" t="s">
+        <v>287</v>
+      </c>
+      <c r="C77" t="s">
+        <v>24</v>
+      </c>
+      <c r="D77" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I77" t="s">
+        <v>207</v>
+      </c>
+      <c r="J77" t="s">
+        <v>18</v>
+      </c>
+      <c r="K77" s="2">
+        <v>70</v>
+      </c>
+      <c r="L77" s="2"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K78" s="2">
+        <v>85</v>
+      </c>
+      <c r="L78" s="2"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D79" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K79" s="2">
+        <v>80</v>
+      </c>
+      <c r="L79" s="2"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>288</v>
+      </c>
+      <c r="B80" t="s">
+        <v>289</v>
+      </c>
+      <c r="C80" t="s">
+        <v>24</v>
+      </c>
+      <c r="D80" t="b">
+        <v>0</v>
+      </c>
+      <c r="E80" t="s">
+        <v>216</v>
+      </c>
+      <c r="F80" t="s">
+        <v>217</v>
+      </c>
+      <c r="G80" t="s">
+        <v>196</v>
+      </c>
+      <c r="H80" t="s">
+        <v>129</v>
+      </c>
+      <c r="I80" t="s">
+        <v>290</v>
+      </c>
+      <c r="J80" t="s">
+        <v>18</v>
+      </c>
+      <c r="K80" s="2">
+        <v>66</v>
+      </c>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D81" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K81" s="2">
+        <v>87</v>
+      </c>
+      <c r="L81" s="2"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D82" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K82" s="2">
+        <v>80</v>
+      </c>
+      <c r="L82" s="2"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K83" s="2">
+        <v>79</v>
+      </c>
+      <c r="L83" s="2"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>33</v>
+      </c>
+      <c r="B84" t="s">
+        <v>291</v>
+      </c>
+      <c r="C84" t="s">
+        <v>24</v>
+      </c>
+      <c r="D84" t="b">
+        <v>0</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I84" t="s">
+        <v>290</v>
+      </c>
+      <c r="J84" t="s">
+        <v>21</v>
+      </c>
+      <c r="K84" s="2">
+        <v>78</v>
+      </c>
+      <c r="L84" s="2"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K85" s="2">
+        <v>78</v>
+      </c>
+      <c r="L85" s="2"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B86" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D74" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E74" s="1" t="s">
+      <c r="D86" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E86" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="F74" s="1" t="s">
+      <c r="F86" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="G74" s="1" t="s">
+      <c r="G86" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="H74" s="1" t="s">
+      <c r="H86" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="I74" s="1" t="s">
+      <c r="I86" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="J74" s="1" t="s">
+      <c r="J86" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K74" s="2"/>
-      <c r="L74" s="2"/>
+      <c r="K86" s="2">
+        <v>78</v>
+      </c>
+      <c r="L86" s="2"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="2"/>
+      <c r="L94" s="2"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="2"/>
+      <c r="L98" s="2"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="2"/>
+      <c r="L99" s="2"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+      <c r="K104" s="2"/>
+      <c r="L104" s="2"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/data/datasets/roster_san_diego_state.xlsx
+++ b/data/datasets/roster_san_diego_state.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdpet\Documents\Post School Coursework\data_projects\cfb-analysis\data\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78A53DF-4AD2-41CA-9F7F-289E6A3DE809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3916E31D-41E1-4255-AB79-88A20874335C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/datasets/roster_san_diego_state.xlsx
+++ b/data/datasets/roster_san_diego_state.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdpet\Documents\Post School Coursework\data_projects\cfb-analysis\data\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3916E31D-41E1-4255-AB79-88A20874335C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA4C8A5-95C9-4BC3-8BB9-14F9F42E03CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4586,8 +4586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="L86" sqref="L86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4678,7 +4678,9 @@
       <c r="K2" s="2">
         <v>93</v>
       </c>
-      <c r="L2" s="2"/>
+      <c r="L2" s="2">
+        <v>99</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -4714,7 +4716,9 @@
       <c r="K3" s="2">
         <v>86</v>
       </c>
-      <c r="L3" s="2"/>
+      <c r="L3" s="2">
+        <v>86</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -4750,7 +4754,9 @@
       <c r="K4" s="2">
         <v>80</v>
       </c>
-      <c r="L4" s="2"/>
+      <c r="L4" s="2">
+        <v>80</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -4786,7 +4792,9 @@
       <c r="K5" s="2">
         <v>78</v>
       </c>
-      <c r="L5" s="2"/>
+      <c r="L5" s="2">
+        <v>78</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -4822,7 +4830,9 @@
       <c r="K6" s="3">
         <v>78</v>
       </c>
-      <c r="L6" s="3"/>
+      <c r="L6" s="3">
+        <v>78</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -4858,7 +4868,9 @@
       <c r="K7" s="2">
         <v>94</v>
       </c>
-      <c r="L7" s="2"/>
+      <c r="L7" s="2">
+        <v>95</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -4894,7 +4906,9 @@
       <c r="K8" s="2">
         <v>82</v>
       </c>
-      <c r="L8" s="2"/>
+      <c r="L8" s="2">
+        <v>83</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
@@ -4930,7 +4944,9 @@
       <c r="K9" s="2">
         <v>80</v>
       </c>
-      <c r="L9" s="2"/>
+      <c r="L9" s="2">
+        <v>82</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -4966,7 +4982,9 @@
       <c r="K10" s="2">
         <v>78</v>
       </c>
-      <c r="L10" s="2"/>
+      <c r="L10" s="2">
+        <v>78</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -5002,7 +5020,9 @@
       <c r="K11" s="3">
         <v>79</v>
       </c>
-      <c r="L11" s="3"/>
+      <c r="L11" s="3">
+        <v>79</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -5038,7 +5058,9 @@
       <c r="K12" s="3">
         <v>75</v>
       </c>
-      <c r="L12" s="3"/>
+      <c r="L12" s="3">
+        <v>75</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
@@ -5074,7 +5096,9 @@
       <c r="K13" s="2">
         <v>74</v>
       </c>
-      <c r="L13" s="2"/>
+      <c r="L13" s="2">
+        <v>74</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
@@ -5110,7 +5134,9 @@
       <c r="K14" s="2">
         <v>90</v>
       </c>
-      <c r="L14" s="2"/>
+      <c r="L14" s="2">
+        <v>92</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
@@ -5146,7 +5172,9 @@
       <c r="K15" s="2">
         <v>86</v>
       </c>
-      <c r="L15" s="2"/>
+      <c r="L15" s="2">
+        <v>86</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
@@ -5182,7 +5210,9 @@
       <c r="K16" s="2">
         <v>85</v>
       </c>
-      <c r="L16" s="2"/>
+      <c r="L16" s="2">
+        <v>85</v>
+      </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
@@ -5218,20 +5248,22 @@
       <c r="K17" s="2">
         <v>81</v>
       </c>
-      <c r="L17" s="2"/>
+      <c r="L17" s="2">
+        <v>81</v>
+      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>66</v>
+        <v>248</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>67</v>
+        <v>249</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>52</v>
@@ -5249,25 +5281,27 @@
         <v>68</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K18" s="2">
-        <v>79</v>
-      </c>
-      <c r="L18" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="L18" s="2">
+        <v>80</v>
+      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>248</v>
+        <v>66</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>249</v>
+        <v>67</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D19" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>52</v>
@@ -5285,12 +5319,14 @@
         <v>68</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K19" s="2">
-        <v>80</v>
-      </c>
-      <c r="L19" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="L19" s="2">
+        <v>79</v>
+      </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
@@ -5326,7 +5362,9 @@
       <c r="K20" s="2">
         <v>77</v>
       </c>
-      <c r="L20" s="2"/>
+      <c r="L20" s="2">
+        <v>77</v>
+      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
@@ -5362,7 +5400,9 @@
       <c r="K21" s="2">
         <v>75</v>
       </c>
-      <c r="L21" s="2"/>
+      <c r="L21" s="2">
+        <v>75</v>
+      </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
@@ -5398,7 +5438,9 @@
       <c r="K22" s="2">
         <v>75</v>
       </c>
-      <c r="L22" s="2"/>
+      <c r="L22" s="2">
+        <v>75</v>
+      </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
@@ -5434,7 +5476,9 @@
       <c r="K23" s="2">
         <v>73</v>
       </c>
-      <c r="L23" s="2"/>
+      <c r="L23" s="2">
+        <v>73</v>
+      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
@@ -5470,7 +5514,9 @@
       <c r="K24" s="2">
         <v>83</v>
       </c>
-      <c r="L24" s="2"/>
+      <c r="L24" s="2">
+        <v>83</v>
+      </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
@@ -5506,7 +5552,9 @@
       <c r="K25" s="2">
         <v>84</v>
       </c>
-      <c r="L25" s="2"/>
+      <c r="L25" s="2">
+        <v>84</v>
+      </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
@@ -5542,7 +5590,9 @@
       <c r="K26" s="2">
         <v>76</v>
       </c>
-      <c r="L26" s="2"/>
+      <c r="L26" s="2">
+        <v>76</v>
+      </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
@@ -5578,7 +5628,9 @@
       <c r="K27" s="2">
         <v>74</v>
       </c>
-      <c r="L27" s="2"/>
+      <c r="L27" s="2">
+        <v>74</v>
+      </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -5614,7 +5666,9 @@
       <c r="K28" s="2">
         <v>73</v>
       </c>
-      <c r="L28" s="2"/>
+      <c r="L28" s="2">
+        <v>73</v>
+      </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
@@ -5650,7 +5704,9 @@
       <c r="K29" s="2">
         <v>88</v>
       </c>
-      <c r="L29" s="2"/>
+      <c r="L29" s="2">
+        <v>89</v>
+      </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
@@ -5686,7 +5742,9 @@
       <c r="K30" s="2">
         <v>80</v>
       </c>
-      <c r="L30" s="2"/>
+      <c r="L30" s="2">
+        <v>80</v>
+      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -5722,7 +5780,9 @@
       <c r="K31" s="3">
         <v>69</v>
       </c>
-      <c r="L31" s="3"/>
+      <c r="L31" s="3">
+        <v>69</v>
+      </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
@@ -5758,7 +5818,9 @@
       <c r="K32" s="2">
         <v>86</v>
       </c>
-      <c r="L32" s="2"/>
+      <c r="L32" s="2">
+        <v>86</v>
+      </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
@@ -5794,7 +5856,9 @@
       <c r="K33" s="2">
         <v>82</v>
       </c>
-      <c r="L33" s="2"/>
+      <c r="L33" s="2">
+        <v>83</v>
+      </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
@@ -5830,7 +5894,9 @@
       <c r="K34" s="2">
         <v>68</v>
       </c>
-      <c r="L34" s="2"/>
+      <c r="L34" s="2">
+        <v>68</v>
+      </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
@@ -5866,7 +5932,9 @@
       <c r="K35" s="2">
         <v>89</v>
       </c>
-      <c r="L35" s="2"/>
+      <c r="L35" s="2">
+        <v>89</v>
+      </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
@@ -5902,7 +5970,9 @@
       <c r="K36" s="2">
         <v>80</v>
       </c>
-      <c r="L36" s="2"/>
+      <c r="L36" s="2">
+        <v>81</v>
+      </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
@@ -5938,7 +6008,9 @@
       <c r="K37" s="2">
         <v>83</v>
       </c>
-      <c r="L37" s="2"/>
+      <c r="L37" s="2">
+        <v>87</v>
+      </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
@@ -5974,7 +6046,9 @@
       <c r="K38" s="2">
         <v>77</v>
       </c>
-      <c r="L38" s="2"/>
+      <c r="L38" s="2">
+        <v>78</v>
+      </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
@@ -6010,7 +6084,9 @@
       <c r="K39" s="3">
         <v>76</v>
       </c>
-      <c r="L39" s="3"/>
+      <c r="L39" s="3">
+        <v>76</v>
+      </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
@@ -6046,7 +6122,9 @@
       <c r="K40" s="2">
         <v>91</v>
       </c>
-      <c r="L40" s="2"/>
+      <c r="L40" s="2">
+        <v>92</v>
+      </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
@@ -6082,7 +6160,9 @@
       <c r="K41" s="2">
         <v>85</v>
       </c>
-      <c r="L41" s="2"/>
+      <c r="L41" s="2">
+        <v>85</v>
+      </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
@@ -6118,7 +6198,9 @@
       <c r="K42" s="2">
         <v>79</v>
       </c>
-      <c r="L42" s="2"/>
+      <c r="L42" s="2">
+        <v>80</v>
+      </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
@@ -6154,7 +6236,9 @@
       <c r="K43" s="2">
         <v>78</v>
       </c>
-      <c r="L43" s="2"/>
+      <c r="L43" s="2">
+        <v>78</v>
+      </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
@@ -6190,7 +6274,9 @@
       <c r="K44" s="2">
         <v>77</v>
       </c>
-      <c r="L44" s="2"/>
+      <c r="L44" s="2">
+        <v>77</v>
+      </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
@@ -6226,7 +6312,9 @@
       <c r="K45" s="2">
         <v>86</v>
       </c>
-      <c r="L45" s="2"/>
+      <c r="L45" s="2">
+        <v>88</v>
+      </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
@@ -6262,7 +6350,9 @@
       <c r="K46" s="2">
         <v>78</v>
       </c>
-      <c r="L46" s="2"/>
+      <c r="L46" s="2">
+        <v>78</v>
+      </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
@@ -6298,7 +6388,9 @@
       <c r="K47" s="2">
         <v>78</v>
       </c>
-      <c r="L47" s="2"/>
+      <c r="L47" s="2">
+        <v>78</v>
+      </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
@@ -6334,7 +6426,9 @@
       <c r="K48" s="2">
         <v>72</v>
       </c>
-      <c r="L48" s="2"/>
+      <c r="L48" s="2">
+        <v>72</v>
+      </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
@@ -6370,7 +6464,9 @@
       <c r="K49" s="2">
         <v>86</v>
       </c>
-      <c r="L49" s="2"/>
+      <c r="L49" s="2">
+        <v>86</v>
+      </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
@@ -6406,7 +6502,9 @@
       <c r="K50" s="3">
         <v>85</v>
       </c>
-      <c r="L50" s="3"/>
+      <c r="L50" s="3">
+        <v>85</v>
+      </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
@@ -6442,7 +6540,9 @@
       <c r="K51" s="3">
         <v>75</v>
       </c>
-      <c r="L51" s="3"/>
+      <c r="L51" s="3">
+        <v>75</v>
+      </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
@@ -6478,7 +6578,9 @@
       <c r="K52" s="2">
         <v>86</v>
       </c>
-      <c r="L52" s="2"/>
+      <c r="L52" s="2">
+        <v>87</v>
+      </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
@@ -6514,7 +6616,9 @@
       <c r="K53" s="2">
         <v>84</v>
       </c>
-      <c r="L53" s="2"/>
+      <c r="L53" s="2">
+        <v>84</v>
+      </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
@@ -6550,7 +6654,9 @@
       <c r="K54" s="2">
         <v>80</v>
       </c>
-      <c r="L54" s="2"/>
+      <c r="L54" s="2">
+        <v>80</v>
+      </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
@@ -6586,7 +6692,9 @@
       <c r="K55" s="2">
         <v>78</v>
       </c>
-      <c r="L55" s="2"/>
+      <c r="L55" s="2">
+        <v>78</v>
+      </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
@@ -6622,7 +6730,9 @@
       <c r="K56" s="2">
         <v>73</v>
       </c>
-      <c r="L56" s="2"/>
+      <c r="L56" s="2">
+        <v>73</v>
+      </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
@@ -6658,7 +6768,9 @@
       <c r="K57" s="2">
         <v>84</v>
       </c>
-      <c r="L57" s="2"/>
+      <c r="L57" s="2">
+        <v>84</v>
+      </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
@@ -6694,7 +6806,9 @@
       <c r="K58" s="2">
         <v>80</v>
       </c>
-      <c r="L58" s="2"/>
+      <c r="L58" s="2">
+        <v>80</v>
+      </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
@@ -6730,7 +6844,9 @@
       <c r="K59" s="2">
         <v>78</v>
       </c>
-      <c r="L59" s="2"/>
+      <c r="L59" s="2">
+        <v>78</v>
+      </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
@@ -6766,7 +6882,9 @@
       <c r="K60" s="3">
         <v>70</v>
       </c>
-      <c r="L60" s="3"/>
+      <c r="L60" s="3">
+        <v>70</v>
+      </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
@@ -6802,7 +6920,9 @@
       <c r="K61" s="2">
         <v>91</v>
       </c>
-      <c r="L61" s="2"/>
+      <c r="L61" s="2">
+        <v>94</v>
+      </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
@@ -6838,7 +6958,9 @@
       <c r="K62" s="2">
         <v>80</v>
       </c>
-      <c r="L62" s="2"/>
+      <c r="L62" s="2">
+        <v>80</v>
+      </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
@@ -6874,7 +6996,9 @@
       <c r="K63" s="2">
         <v>78</v>
       </c>
-      <c r="L63" s="2"/>
+      <c r="L63" s="2">
+        <v>79</v>
+      </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
@@ -6910,7 +7034,9 @@
       <c r="K64" s="3">
         <v>74</v>
       </c>
-      <c r="L64" s="3"/>
+      <c r="L64" s="3">
+        <v>74</v>
+      </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
@@ -6946,7 +7072,9 @@
       <c r="K65" s="2">
         <v>92</v>
       </c>
-      <c r="L65" s="2"/>
+      <c r="L65" s="2">
+        <v>92</v>
+      </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
@@ -6982,7 +7110,9 @@
       <c r="K66" s="2">
         <v>89</v>
       </c>
-      <c r="L66" s="2"/>
+      <c r="L66" s="2">
+        <v>89</v>
+      </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
@@ -7018,7 +7148,9 @@
       <c r="K67" s="2">
         <v>79</v>
       </c>
-      <c r="L67" s="2"/>
+      <c r="L67" s="2">
+        <v>79</v>
+      </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
@@ -7054,7 +7186,9 @@
       <c r="K68" s="2">
         <v>74</v>
       </c>
-      <c r="L68" s="2"/>
+      <c r="L68" s="2">
+        <v>74</v>
+      </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
@@ -7090,7 +7224,9 @@
       <c r="K69" s="2">
         <v>73</v>
       </c>
-      <c r="L69" s="2"/>
+      <c r="L69" s="2">
+        <v>73</v>
+      </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
@@ -7126,7 +7262,9 @@
       <c r="K70" s="2">
         <v>85</v>
       </c>
-      <c r="L70" s="2"/>
+      <c r="L70" s="2">
+        <v>88</v>
+      </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
@@ -7162,7 +7300,9 @@
       <c r="K71" s="2">
         <v>83</v>
       </c>
-      <c r="L71" s="2"/>
+      <c r="L71" s="2">
+        <v>83</v>
+      </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
@@ -7198,7 +7338,9 @@
       <c r="K72" s="2">
         <v>83</v>
       </c>
-      <c r="L72" s="2"/>
+      <c r="L72" s="2">
+        <v>83</v>
+      </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
@@ -7234,7 +7376,9 @@
       <c r="K73" s="2">
         <v>81</v>
       </c>
-      <c r="L73" s="2"/>
+      <c r="L73" s="2">
+        <v>81</v>
+      </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
@@ -7270,7 +7414,9 @@
       <c r="K74" s="2">
         <v>80</v>
       </c>
-      <c r="L74" s="2"/>
+      <c r="L74" s="2">
+        <v>80</v>
+      </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
@@ -7306,7 +7452,9 @@
       <c r="K75" s="2">
         <v>78</v>
       </c>
-      <c r="L75" s="2"/>
+      <c r="L75" s="2">
+        <v>78</v>
+      </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
@@ -7342,7 +7490,9 @@
       <c r="K76" s="2">
         <v>77</v>
       </c>
-      <c r="L76" s="2"/>
+      <c r="L76" s="2">
+        <v>77</v>
+      </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
@@ -7378,7 +7528,9 @@
       <c r="K77" s="2">
         <v>70</v>
       </c>
-      <c r="L77" s="2"/>
+      <c r="L77" s="2">
+        <v>70</v>
+      </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
@@ -7414,7 +7566,9 @@
       <c r="K78" s="2">
         <v>85</v>
       </c>
-      <c r="L78" s="2"/>
+      <c r="L78" s="2">
+        <v>87</v>
+      </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
@@ -7450,7 +7604,9 @@
       <c r="K79" s="2">
         <v>80</v>
       </c>
-      <c r="L79" s="2"/>
+      <c r="L79" s="2">
+        <v>81</v>
+      </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
@@ -7486,7 +7642,9 @@
       <c r="K80" s="2">
         <v>66</v>
       </c>
-      <c r="L80" s="2"/>
+      <c r="L80" s="2">
+        <v>66</v>
+      </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
@@ -7522,7 +7680,9 @@
       <c r="K81" s="2">
         <v>87</v>
       </c>
-      <c r="L81" s="2"/>
+      <c r="L81" s="2">
+        <v>87</v>
+      </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
@@ -7558,7 +7718,9 @@
       <c r="K82" s="2">
         <v>80</v>
       </c>
-      <c r="L82" s="2"/>
+      <c r="L82" s="2">
+        <v>80</v>
+      </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
@@ -7594,7 +7756,9 @@
       <c r="K83" s="2">
         <v>79</v>
       </c>
-      <c r="L83" s="2"/>
+      <c r="L83" s="2">
+        <v>79</v>
+      </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
@@ -7630,7 +7794,9 @@
       <c r="K84" s="2">
         <v>78</v>
       </c>
-      <c r="L84" s="2"/>
+      <c r="L84" s="2">
+        <v>78</v>
+      </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
@@ -7666,7 +7832,9 @@
       <c r="K85" s="2">
         <v>78</v>
       </c>
-      <c r="L85" s="2"/>
+      <c r="L85" s="2">
+        <v>83</v>
+      </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
@@ -7702,7 +7870,9 @@
       <c r="K86" s="2">
         <v>78</v>
       </c>
-      <c r="L86" s="2"/>
+      <c r="L86" s="2">
+        <v>78</v>
+      </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>

--- a/data/datasets/roster_san_diego_state.xlsx
+++ b/data/datasets/roster_san_diego_state.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdpet\Documents\Post School Coursework\data_projects\cfb-analysis\data\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA4C8A5-95C9-4BC3-8BB9-14F9F42E03CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D623C5-E388-4B49-B4F4-22F0C417368F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1302,3293 +1302,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="2">
-        <v>86</v>
-      </c>
-      <c r="L2" s="2">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="2">
-        <v>86</v>
-      </c>
-      <c r="L3" s="2">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="2">
-        <v>75</v>
-      </c>
-      <c r="L4" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" s="2">
-        <v>89</v>
-      </c>
-      <c r="L5" s="2">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="2">
-        <v>87</v>
-      </c>
-      <c r="L6" s="2">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" s="2">
-        <v>87</v>
-      </c>
-      <c r="L7" s="2">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="2">
-        <v>83</v>
-      </c>
-      <c r="L8" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" s="2">
-        <v>74</v>
-      </c>
-      <c r="L9" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="2">
-        <v>73</v>
-      </c>
-      <c r="L10" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K11" s="2">
-        <v>72</v>
-      </c>
-      <c r="L11" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="2">
-        <v>85</v>
-      </c>
-      <c r="L12" s="2">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K13" s="2">
-        <v>85</v>
-      </c>
-      <c r="L13" s="2">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K14" s="2">
-        <v>82</v>
-      </c>
-      <c r="L14" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" s="2">
-        <v>81</v>
-      </c>
-      <c r="L15" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K16" s="2">
-        <v>81</v>
-      </c>
-      <c r="L16" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K17" s="2">
-        <v>81</v>
-      </c>
-      <c r="L17" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K18" s="2">
-        <v>75</v>
-      </c>
-      <c r="L18" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K19" s="2">
-        <v>74</v>
-      </c>
-      <c r="L19" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K20" s="2">
-        <v>69</v>
-      </c>
-      <c r="L20" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K21" s="2">
-        <v>65</v>
-      </c>
-      <c r="L21" s="2">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K22" s="2">
-        <v>81</v>
-      </c>
-      <c r="L22" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K23" s="2">
-        <v>78</v>
-      </c>
-      <c r="L23" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K24" s="2">
-        <v>75</v>
-      </c>
-      <c r="L24" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K25" s="2">
-        <v>70</v>
-      </c>
-      <c r="L25" s="2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K26" s="2">
-        <v>91</v>
-      </c>
-      <c r="L26" s="2">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K27" s="2">
-        <v>83</v>
-      </c>
-      <c r="L27" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K28" s="2">
-        <v>80</v>
-      </c>
-      <c r="L28" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K29" s="2">
-        <v>84</v>
-      </c>
-      <c r="L29" s="2">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K30" s="2">
-        <v>82</v>
-      </c>
-      <c r="L30" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K31" s="2">
-        <v>81</v>
-      </c>
-      <c r="L31" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K32" s="2">
-        <v>88</v>
-      </c>
-      <c r="L32" s="2">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K33" s="2">
-        <v>84</v>
-      </c>
-      <c r="L33" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K34" s="2">
-        <v>78</v>
-      </c>
-      <c r="L34" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K35" s="2">
-        <v>74</v>
-      </c>
-      <c r="L35" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D36" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K36" s="2">
-        <v>78</v>
-      </c>
-      <c r="L36" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K37" s="2">
-        <v>75</v>
-      </c>
-      <c r="L37" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D38" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K38" s="2">
-        <v>75</v>
-      </c>
-      <c r="L38" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D39" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K39" s="2">
-        <v>85</v>
-      </c>
-      <c r="L39" s="2">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K40" s="2">
-        <v>84</v>
-      </c>
-      <c r="L40" s="2">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D41" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K41" s="2">
-        <v>76</v>
-      </c>
-      <c r="L41" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D42" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K42" s="2">
-        <v>74</v>
-      </c>
-      <c r="L42" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D43" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K43" s="2">
-        <v>93</v>
-      </c>
-      <c r="L43" s="2">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D44" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K44" s="2">
-        <v>88</v>
-      </c>
-      <c r="L44" s="2">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D45" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K45" s="2">
-        <v>80</v>
-      </c>
-      <c r="L45" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D46" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K46" s="2">
-        <v>76</v>
-      </c>
-      <c r="L46" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D47" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K47" s="2">
-        <v>84</v>
-      </c>
-      <c r="L47" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D48" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K48" s="2">
-        <v>84</v>
-      </c>
-      <c r="L48" s="2">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D49" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K49" s="2">
-        <v>85</v>
-      </c>
-      <c r="L49" s="2">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D50" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K50" s="2">
-        <v>73</v>
-      </c>
-      <c r="L50" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D51" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K51" s="2">
-        <v>70</v>
-      </c>
-      <c r="L51" s="2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D52" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K52" s="2">
-        <v>89</v>
-      </c>
-      <c r="L52" s="2">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D53" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K53" s="2">
-        <v>84</v>
-      </c>
-      <c r="L53" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D54" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K54" s="2">
-        <v>76</v>
-      </c>
-      <c r="L54" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D55" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K55" s="2">
-        <v>76</v>
-      </c>
-      <c r="L55" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D56" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K56" s="2">
-        <v>74</v>
-      </c>
-      <c r="L56" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D57" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K57" s="2">
-        <v>69</v>
-      </c>
-      <c r="L57" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D58" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K58" s="2">
-        <v>89</v>
-      </c>
-      <c r="L58" s="2">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D59" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K59" s="2">
-        <v>78</v>
-      </c>
-      <c r="L59" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D60" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K60" s="2">
-        <v>76</v>
-      </c>
-      <c r="L60" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D61" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K61" s="2">
-        <v>93</v>
-      </c>
-      <c r="L61" s="2">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D62" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K62" s="2">
-        <v>91</v>
-      </c>
-      <c r="L62" s="2">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D63" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K63" s="2">
-        <v>81</v>
-      </c>
-      <c r="L63" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D64" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K64" s="2">
-        <v>75</v>
-      </c>
-      <c r="L64" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D65" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K65" s="2">
-        <v>75</v>
-      </c>
-      <c r="L65" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D66" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K66" s="2">
-        <v>70</v>
-      </c>
-      <c r="L66" s="2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D67" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K67" s="2">
-        <v>90</v>
-      </c>
-      <c r="L67" s="2">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D68" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K68" s="2">
-        <v>83</v>
-      </c>
-      <c r="L68" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D69" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K69" s="2">
-        <v>68</v>
-      </c>
-      <c r="L69" s="2">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D70" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K70" s="2">
-        <v>65</v>
-      </c>
-      <c r="L70" s="2">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D71" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K71" s="2">
-        <v>87</v>
-      </c>
-      <c r="L71" s="2">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D72" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K72" s="2">
-        <v>84</v>
-      </c>
-      <c r="L72" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D73" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K73" s="2">
-        <v>84</v>
-      </c>
-      <c r="L73" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D74" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K74" s="2">
-        <v>82</v>
-      </c>
-      <c r="L74" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D75" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K75" s="2">
-        <v>78</v>
-      </c>
-      <c r="L75" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D76" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K76" s="2">
-        <v>77</v>
-      </c>
-      <c r="L76" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D77" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="J77" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K77" s="2">
-        <v>77</v>
-      </c>
-      <c r="L77" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D78" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K78" s="2">
-        <v>68</v>
-      </c>
-      <c r="L78" s="2">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D79" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K79" s="2">
-        <v>82</v>
-      </c>
-      <c r="L79" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D80" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K80" s="2">
-        <v>82</v>
-      </c>
-      <c r="L80" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D81" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K81" s="2">
-        <v>78</v>
-      </c>
-      <c r="L81" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D82" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="J82" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K82" s="2">
-        <v>85</v>
-      </c>
-      <c r="L82" s="2">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D83" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="J83" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K83" s="2">
-        <v>77</v>
-      </c>
-      <c r="L83" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D84" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I84" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="J84" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K84" s="2">
-        <v>69</v>
-      </c>
-      <c r="L84" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D85" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="J85" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K85" s="2">
-        <v>69</v>
-      </c>
-      <c r="L85" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D86" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="J86" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K86" s="2">
-        <v>76</v>
-      </c>
-      <c r="L86" s="2">
-        <v>76</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L107"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="L86" sqref="L86"/>
-    </sheetView>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4646,6 +1360,3304 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="2">
+        <v>86</v>
+      </c>
+      <c r="L2" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="2">
+        <v>86</v>
+      </c>
+      <c r="L3" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="2">
+        <v>75</v>
+      </c>
+      <c r="L4" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="2">
+        <v>89</v>
+      </c>
+      <c r="L5" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="2">
+        <v>87</v>
+      </c>
+      <c r="L6" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="2">
+        <v>87</v>
+      </c>
+      <c r="L7" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="2">
+        <v>83</v>
+      </c>
+      <c r="L8" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="2">
+        <v>74</v>
+      </c>
+      <c r="L9" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="2">
+        <v>73</v>
+      </c>
+      <c r="L10" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" s="2">
+        <v>72</v>
+      </c>
+      <c r="L11" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="2">
+        <v>85</v>
+      </c>
+      <c r="L12" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="2">
+        <v>85</v>
+      </c>
+      <c r="L13" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14" s="2">
+        <v>82</v>
+      </c>
+      <c r="L14" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="2">
+        <v>81</v>
+      </c>
+      <c r="L15" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="2">
+        <v>81</v>
+      </c>
+      <c r="L16" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" s="2">
+        <v>81</v>
+      </c>
+      <c r="L17" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18" s="2">
+        <v>75</v>
+      </c>
+      <c r="L18" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="2">
+        <v>74</v>
+      </c>
+      <c r="L19" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="2">
+        <v>69</v>
+      </c>
+      <c r="L20" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" s="2">
+        <v>65</v>
+      </c>
+      <c r="L21" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="2">
+        <v>81</v>
+      </c>
+      <c r="L22" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" s="2">
+        <v>78</v>
+      </c>
+      <c r="L23" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K24" s="2">
+        <v>75</v>
+      </c>
+      <c r="L24" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K25" s="2">
+        <v>70</v>
+      </c>
+      <c r="L25" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K26" s="2">
+        <v>91</v>
+      </c>
+      <c r="L26" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K27" s="2">
+        <v>83</v>
+      </c>
+      <c r="L27" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K28" s="2">
+        <v>80</v>
+      </c>
+      <c r="L28" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K29" s="2">
+        <v>84</v>
+      </c>
+      <c r="L29" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K30" s="2">
+        <v>82</v>
+      </c>
+      <c r="L30" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K31" s="2">
+        <v>81</v>
+      </c>
+      <c r="L31" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K32" s="2">
+        <v>88</v>
+      </c>
+      <c r="L32" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K33" s="2">
+        <v>84</v>
+      </c>
+      <c r="L33" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K34" s="2">
+        <v>78</v>
+      </c>
+      <c r="L34" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K35" s="2">
+        <v>74</v>
+      </c>
+      <c r="L35" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K36" s="2">
+        <v>78</v>
+      </c>
+      <c r="L36" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K37" s="2">
+        <v>75</v>
+      </c>
+      <c r="L37" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K38" s="2">
+        <v>75</v>
+      </c>
+      <c r="L38" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K39" s="2">
+        <v>85</v>
+      </c>
+      <c r="L39" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K40" s="2">
+        <v>84</v>
+      </c>
+      <c r="L40" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K41" s="2">
+        <v>76</v>
+      </c>
+      <c r="L41" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K42" s="2">
+        <v>74</v>
+      </c>
+      <c r="L42" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K43" s="2">
+        <v>93</v>
+      </c>
+      <c r="L43" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K44" s="2">
+        <v>88</v>
+      </c>
+      <c r="L44" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K45" s="2">
+        <v>80</v>
+      </c>
+      <c r="L45" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K46" s="2">
+        <v>76</v>
+      </c>
+      <c r="L46" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K47" s="2">
+        <v>84</v>
+      </c>
+      <c r="L47" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K48" s="2">
+        <v>84</v>
+      </c>
+      <c r="L48" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K49" s="2">
+        <v>85</v>
+      </c>
+      <c r="L49" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D50" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K50" s="2">
+        <v>73</v>
+      </c>
+      <c r="L50" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D51" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K51" s="2">
+        <v>70</v>
+      </c>
+      <c r="L51" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D52" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K52" s="2">
+        <v>89</v>
+      </c>
+      <c r="L52" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D53" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K53" s="2">
+        <v>84</v>
+      </c>
+      <c r="L53" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K54" s="2">
+        <v>76</v>
+      </c>
+      <c r="L54" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D55" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K55" s="2">
+        <v>76</v>
+      </c>
+      <c r="L55" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D56" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K56" s="2">
+        <v>74</v>
+      </c>
+      <c r="L56" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D57" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K57" s="2">
+        <v>69</v>
+      </c>
+      <c r="L57" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D58" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K58" s="2">
+        <v>89</v>
+      </c>
+      <c r="L58" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D59" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K59" s="2">
+        <v>78</v>
+      </c>
+      <c r="L59" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D60" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K60" s="2">
+        <v>76</v>
+      </c>
+      <c r="L60" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D61" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K61" s="2">
+        <v>93</v>
+      </c>
+      <c r="L61" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D62" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K62" s="2">
+        <v>91</v>
+      </c>
+      <c r="L62" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D63" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K63" s="2">
+        <v>81</v>
+      </c>
+      <c r="L63" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D64" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K64" s="2">
+        <v>75</v>
+      </c>
+      <c r="L64" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D65" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K65" s="2">
+        <v>75</v>
+      </c>
+      <c r="L65" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D66" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K66" s="2">
+        <v>70</v>
+      </c>
+      <c r="L66" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D67" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K67" s="2">
+        <v>90</v>
+      </c>
+      <c r="L67" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D68" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K68" s="2">
+        <v>83</v>
+      </c>
+      <c r="L68" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D69" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K69" s="2">
+        <v>68</v>
+      </c>
+      <c r="L69" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D70" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K70" s="2">
+        <v>65</v>
+      </c>
+      <c r="L70" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D71" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K71" s="2">
+        <v>87</v>
+      </c>
+      <c r="L71" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D72" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K72" s="2">
+        <v>84</v>
+      </c>
+      <c r="L72" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D73" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K73" s="2">
+        <v>84</v>
+      </c>
+      <c r="L73" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K74" s="2">
+        <v>82</v>
+      </c>
+      <c r="L74" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D75" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K75" s="2">
+        <v>78</v>
+      </c>
+      <c r="L75" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D76" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K76" s="2">
+        <v>77</v>
+      </c>
+      <c r="L76" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D77" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K77" s="2">
+        <v>77</v>
+      </c>
+      <c r="L77" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D78" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K78" s="2">
+        <v>68</v>
+      </c>
+      <c r="L78" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K79" s="2">
+        <v>82</v>
+      </c>
+      <c r="L79" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D80" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K80" s="2">
+        <v>82</v>
+      </c>
+      <c r="L80" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D81" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K81" s="2">
+        <v>78</v>
+      </c>
+      <c r="L81" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K82" s="2">
+        <v>85</v>
+      </c>
+      <c r="L82" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D83" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K83" s="2">
+        <v>77</v>
+      </c>
+      <c r="L83" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D84" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K84" s="2">
+        <v>69</v>
+      </c>
+      <c r="L84" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D85" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K85" s="2">
+        <v>69</v>
+      </c>
+      <c r="L85" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K86" s="2">
+        <v>76</v>
+      </c>
+      <c r="L86" s="2">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L107"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
